--- a/src/main/resources/data/login.xlsx
+++ b/src/main/resources/data/login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shali\OneDrive\Documents\Resume\Interview prep\seleniumPracticeCodes\webAutomationFramework\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F439660-FDD4-4431-8434-980DB4BB3EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E6DA5-510A-49F0-A177-280DBACD8F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>

--- a/src/main/resources/data/login.xlsx
+++ b/src/main/resources/data/login.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shali\OneDrive\Documents\Resume\Interview prep\seleniumPracticeCodes\webAutomationFramework\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E6DA5-510A-49F0-A177-280DBACD8F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E39FE0-7277-477C-88A0-0CB589E53D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
     <sheet name="Test2" sheetId="2" r:id="rId2"/>
     <sheet name="Test3" sheetId="3" r:id="rId3"/>
+    <sheet name="BrokenLinks" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -480,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E148AF9C-0CB7-484A-81EB-A589BDFF35E5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,4 +510,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CE658A-F8F4-48BD-8AF8-DD4658194076}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>